--- a/data/Texas_GDP_2020-2039.xlsx
+++ b/data/Texas_GDP_2020-2039.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\UT_Grad\EDP_LAW379M\EnviroDev_Policy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AA4C0E8-73E7-4E51-8C8E-5CF306777FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89428134-6AC3-45DD-A080-AEFC80BDFB1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3AEAD15A-B5DE-4FF5-9CC7-C2EF796F94CF}"/>
   </bookViews>
@@ -33,18 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Base_Case</t>
+    <t>GDP_Base</t>
   </si>
   <si>
-    <t>High_Renewables</t>
-  </si>
-  <si>
-    <t>High_EconGrowth</t>
+    <t>GDP_High_EconGrowth</t>
   </si>
 </sst>
 </file>
@@ -396,20 +393,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25922C48-3FC0-4ECC-95DE-16CBC2D4FAB2}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,11 +415,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -431,13 +424,10 @@
         <v>1869615.9378</v>
       </c>
       <c r="C2">
-        <v>1869615.9378</v>
-      </c>
-      <c r="D2">
         <v>1884366.3594</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -445,13 +435,10 @@
         <v>1895790.5609291999</v>
       </c>
       <c r="C3">
-        <v>1895790.5609291999</v>
-      </c>
-      <c r="D3">
         <v>1925822.4193068</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -459,13 +446,10 @@
         <v>1922331.6287822088</v>
       </c>
       <c r="C4">
-        <v>1922331.6287822088</v>
-      </c>
-      <c r="D4">
         <v>1968190.5125315497</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -473,13 +457,10 @@
         <v>1949244.2715851597</v>
       </c>
       <c r="C5">
-        <v>1949244.2715851597</v>
-      </c>
-      <c r="D5">
         <v>2011490.7038072438</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2024</v>
       </c>
@@ -487,13 +468,10 @@
         <v>1976533.6913873521</v>
       </c>
       <c r="C6">
-        <v>1976533.6913873521</v>
-      </c>
-      <c r="D6">
         <v>2055743.4992910032</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -501,13 +479,10 @@
         <v>2004205.1630667751</v>
       </c>
       <c r="C7">
-        <v>2004205.1630667751</v>
-      </c>
-      <c r="D7">
         <v>2100969.8562754053</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2026</v>
       </c>
@@ -515,13 +490,10 @@
         <v>2032264.0353497099</v>
       </c>
       <c r="C8">
-        <v>2032264.0353497099</v>
-      </c>
-      <c r="D8">
         <v>2147191.1931134644</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2027</v>
       </c>
@@ -529,13 +501,10 @@
         <v>2060715.7318446059</v>
       </c>
       <c r="C9">
-        <v>2060715.7318446059</v>
-      </c>
-      <c r="D9">
         <v>2194429.3993619606</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2028</v>
       </c>
@@ -543,13 +512,10 @@
         <v>2089565.7520904304</v>
       </c>
       <c r="C10">
-        <v>2089565.7520904304</v>
-      </c>
-      <c r="D10">
         <v>2242706.8461479237</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2029</v>
       </c>
@@ -557,13 +523,10 @@
         <v>2118819.6726196962</v>
       </c>
       <c r="C11">
-        <v>2118819.6726196962</v>
-      </c>
-      <c r="D11">
         <v>2292046.3967631781</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2030</v>
       </c>
@@ -571,13 +534,10 @@
         <v>2148483.1480363719</v>
       </c>
       <c r="C12">
-        <v>2148483.1480363719</v>
-      </c>
-      <c r="D12">
         <v>2342471.4174919678</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2031</v>
       </c>
@@ -585,13 +545,10 @@
         <v>2178561.9121088809</v>
       </c>
       <c r="C13">
-        <v>2178561.9121088809</v>
-      </c>
-      <c r="D13">
         <v>2394005.7886767914</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2032</v>
       </c>
@@ -599,13 +556,10 @@
         <v>2209061.7788784052</v>
       </c>
       <c r="C14">
-        <v>2209061.7788784052</v>
-      </c>
-      <c r="D14">
         <v>2446673.916027681</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2033</v>
       </c>
@@ -613,13 +567,10 @@
         <v>2239988.6437827027</v>
       </c>
       <c r="C15">
-        <v>2239988.6437827027</v>
-      </c>
-      <c r="D15">
         <v>2500500.7421802902</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2034</v>
       </c>
@@ -627,13 +578,10 @@
         <v>2271348.4847956607</v>
       </c>
       <c r="C16">
-        <v>2271348.4847956607</v>
-      </c>
-      <c r="D16">
         <v>2555511.7585082566</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2035</v>
       </c>
@@ -641,13 +589,10 @@
         <v>2303147.3635828001</v>
       </c>
       <c r="C17">
-        <v>2303147.3635828001</v>
-      </c>
-      <c r="D17">
         <v>2611733.0171954385</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2036</v>
       </c>
@@ -655,13 +600,10 @@
         <v>2335391.4266729592</v>
       </c>
       <c r="C18">
-        <v>2335391.4266729592</v>
-      </c>
-      <c r="D18">
         <v>2669191.1435737382</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -669,13 +611,10 @@
         <v>2368086.9066463807</v>
       </c>
       <c r="C19">
-        <v>2368086.9066463807</v>
-      </c>
-      <c r="D19">
         <v>2727913.3487323606</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2038</v>
       </c>
@@ -683,13 +622,10 @@
         <v>2401240.12333943</v>
       </c>
       <c r="C20">
-        <v>2401240.12333943</v>
-      </c>
-      <c r="D20">
         <v>2787927.4424044727</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2039</v>
       </c>
@@ -697,9 +633,6 @@
         <v>2434857.485066182</v>
       </c>
       <c r="C21">
-        <v>2434857.485066182</v>
-      </c>
-      <c r="D21">
         <v>2849261.8461373714</v>
       </c>
     </row>
